--- a/tests/Tests_Imagens_Iguais.xlsx
+++ b/tests/Tests_Imagens_Iguais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Desktop\ACO_SQC\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D01931-862C-4BA8-8B13-864BF4366930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D548C-3F57-4FBD-8C34-D412AF3ED467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>ACO</t>
-  </si>
-  <si>
-    <t>Banner</t>
   </si>
   <si>
     <t>Titulo</t>
@@ -238,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,24 +271,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -311,9 +295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,9 +311,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -649,88 +627,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93629CA3-3198-42D0-967B-71EB0C1EAD52}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="14.44140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="31.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="14.44140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
       <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -745,205 +721,189 @@
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>35427</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="7">
-        <v>319</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>35428</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7">
-        <v>322</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>35429</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7">
-        <v>271</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>35430</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7">
-        <v>275</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J8" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D12" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -960,7 +920,7 @@
           <x14:formula1>
             <xm:f>Cores!$A$2:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:E1 G1 G3:G1048576 E3:E1048576 I1 I3:I1048576 K1:N1 K3:N1048576</xm:sqref>
+          <xm:sqref>C1:D1 F1 F3:F1048576 D3:D1048576 H1 H3:H1048576 J1:M1 J3:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -983,53 +943,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1048,55 +1008,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>42</v>
+      <c r="A1" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
